--- a/importar_stocks/_stock.xlsx
+++ b/importar_stocks/_stock.xlsx
@@ -5,25 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pikachu\odoo_dev\importar_stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093E6486-3648-4402-9037-DD28D008DF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A834DD9-B539-443B-B9AA-CA0A9B433477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$696</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="696">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,10 +28,10 @@
     <t>Cantidad a mano</t>
   </si>
   <si>
-    <t>Unidad de medida/Descripción</t>
-  </si>
-  <si>
-    <t>Adaptador AUDIO (3.5mm/3.5mm*2)  H M</t>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>Adaptador AUDIO (3.5mm/3.5mm*2) H M</t>
   </si>
   <si>
     <t>Adaptador AUDIO (3.5mm/3.5mm*2) M H</t>
@@ -196,9 +193,6 @@
     <t>Antena Exterior 300Mbps 2.4Ghz 9dBi TPLINK CPE210</t>
   </si>
   <si>
-    <t>Armado Cable UTP</t>
-  </si>
-  <si>
     <t>Auricular in ear  Global con Microfono con 3.5mm Blanco EPINEARMIC-2W</t>
   </si>
   <si>
@@ -1237,6 +1231,9 @@
     <t>DVD Virgen VERBATIM</t>
   </si>
   <si>
+    <t>Descuento</t>
+  </si>
+  <si>
     <t>Disco Externo 2TB HDD USB 3.0 AHV320 Adata</t>
   </si>
   <si>
@@ -1258,6 +1255,9 @@
     <t>Disco M.2 SSD 512Gb PCI 3.0 HIKSEMI</t>
   </si>
   <si>
+    <t>Disco SSD 240Gb Sata 3 Hikvision</t>
+  </si>
+  <si>
     <t>Disco SSD 240gb Sata 3 GIGABYTE</t>
   </si>
   <si>
@@ -1282,9 +1282,6 @@
     <t>Disco SSD 960Gb Sata 3 HikSemi</t>
   </si>
   <si>
-    <t>Envio</t>
-  </si>
-  <si>
     <t>Estabilizador Lyonn Electronico TCA-1200N-V 6 Bocas 220v</t>
   </si>
   <si>
@@ -1660,18 +1657,6 @@
     <t>Pila 2032</t>
   </si>
   <si>
-    <t>Pilas Alcalinas Blister 4 Unidades PHILCO AA</t>
-  </si>
-  <si>
-    <t>Pilas Alcalinas Blister 4 Unidades PHILCO AAA</t>
-  </si>
-  <si>
-    <t>Pilas Recargables Blister 2 Unidades 1.2v 1100mAh AAA</t>
-  </si>
-  <si>
-    <t>Pilas Recargables Blister 2 Unidades 1.2v 2700mAh AA</t>
-  </si>
-  <si>
     <t>Placa PCI USB 2.0 4 Puertos</t>
   </si>
   <si>
@@ -1687,18 +1672,15 @@
     <t>Prolongador Multi-Toma Dear Power 6 tomas 220V + Prot. Termico</t>
   </si>
   <si>
+    <t>Propinas</t>
+  </si>
+  <si>
     <t>Protector Ficha RJ45 Negro</t>
   </si>
   <si>
-    <t>REC</t>
-  </si>
-  <si>
     <t>Recarga Toner PANTUM PB210RB</t>
   </si>
   <si>
-    <t>Rep. Equipo</t>
-  </si>
-  <si>
     <t>Resma  OFICIO 75GRS Ledesma AUTOR</t>
   </si>
   <si>
@@ -1717,12 +1699,6 @@
     <t>Router inalambrico AC1200 TPLINK EC220-F5 WISP AGILE CFG 10/100</t>
   </si>
   <si>
-    <t>Seguro de Mercaderia</t>
-  </si>
-  <si>
-    <t>Simulador</t>
-  </si>
-  <si>
     <t>Sobres sin ventana</t>
   </si>
   <si>
@@ -1912,7 +1888,7 @@
     <t>Toner Alternativo para HP COLOR CE322A CB542A CF212A (128A/125A) Amarillo</t>
   </si>
   <si>
-    <t>Toner Alternativo para HP COLOR CE323A CB543A CF213A (128A/125A)) Magenta</t>
+    <t>Toner Alternativo para HP COLOR CE323A CB543A CF213A (128A/125A) Magenta</t>
   </si>
   <si>
     <t>Toner Alternativo para HP COLOR CE410A CC530A CF380A (305A/304A) Negro</t>
@@ -2120,6 +2096,18 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>Pilas Alcalinas Blister 4 Units PHILCO AA</t>
+  </si>
+  <si>
+    <t>Pilas Alcalinas Blister 4 Units PHILCO AAA</t>
+  </si>
+  <si>
+    <t>Pilas Recargables Blister 2 Units 1.2v 1100mAh AAA</t>
+  </si>
+  <si>
+    <t>Pilas Recargables Blister 2 Units 1.2v 2700mAh AA</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2154,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2473,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C696"/>
+  <dimension ref="A1:C693"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B699" sqref="B699"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2503,7 +2491,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2514,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2525,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2536,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2547,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2558,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2569,7 +2557,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2580,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2591,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2602,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2613,7 +2601,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2624,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2635,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2646,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2657,7 +2645,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2668,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2679,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2690,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2701,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2712,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2723,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2734,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2745,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2756,7 +2744,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2767,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2778,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2789,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -2800,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2811,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2822,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2833,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2844,7 +2832,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2855,7 +2843,7 @@
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2866,7 +2854,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2877,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2888,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2899,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2910,7 +2898,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2921,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2932,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2943,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2954,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2965,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2976,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2987,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -2998,7 +2986,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3009,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3020,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3031,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3042,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3053,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3064,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3075,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3086,29 +3074,29 @@
         <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3116,32 +3104,32 @@
         <v>59</v>
       </c>
       <c r="B58" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -3149,21 +3137,21 @@
         <v>62</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3174,18 +3162,18 @@
         <v>2</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3193,10 +3181,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,13 +3192,13 @@
         <v>67</v>
       </c>
       <c r="B66" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>68</v>
       </c>
@@ -3218,7 +3206,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3226,10 +3214,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3240,29 +3228,29 @@
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3270,10 +3258,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3281,10 +3269,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3295,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3306,7 +3294,7 @@
         <v>3</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3314,10 +3302,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3325,10 +3313,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3336,10 +3324,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3347,10 +3335,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3358,10 +3346,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3369,10 +3357,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3380,10 +3368,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3394,7 +3382,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3405,7 +3393,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3413,10 +3401,10 @@
         <v>86</v>
       </c>
       <c r="B85" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3424,10 +3412,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3435,10 +3423,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3446,10 +3434,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3457,10 +3445,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3468,10 +3456,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3479,10 +3467,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3490,10 +3478,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3501,10 +3489,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3512,10 +3500,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3523,10 +3511,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3534,10 +3522,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3545,10 +3533,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3556,10 +3544,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3570,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3578,10 +3566,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3589,10 +3577,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3600,10 +3588,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3611,10 +3599,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3622,10 +3610,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3633,10 +3621,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3644,10 +3632,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3655,10 +3643,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3666,10 +3654,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3677,10 +3665,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3691,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3702,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3710,10 +3698,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3721,10 +3709,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3735,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3746,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3757,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3768,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3776,10 +3764,10 @@
         <v>119</v>
       </c>
       <c r="B118" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3790,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3801,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3812,40 +3800,40 @@
         <v>2</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="2">
-        <v>2</v>
+        <v>245</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="2">
-        <v>245</v>
+        <v>2</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -3853,21 +3841,21 @@
         <v>126</v>
       </c>
       <c r="B125" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3878,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3886,10 +3874,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3897,10 +3885,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3908,10 +3896,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3919,10 +3907,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3933,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3941,10 +3929,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3952,10 +3940,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3963,10 +3951,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3974,10 +3962,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3985,10 +3973,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -3999,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4007,10 +3995,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4018,10 +4006,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4029,10 +4017,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4040,10 +4028,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4051,10 +4039,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4062,10 +4050,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4076,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4084,13 +4072,13 @@
         <v>147</v>
       </c>
       <c r="B146" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -4098,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4106,21 +4094,21 @@
         <v>149</v>
       </c>
       <c r="B148" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4128,13 +4116,13 @@
         <v>151</v>
       </c>
       <c r="B150" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>152</v>
       </c>
@@ -4142,7 +4130,7 @@
         <v>8</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4150,13 +4138,13 @@
         <v>153</v>
       </c>
       <c r="B152" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>154</v>
       </c>
@@ -4164,7 +4152,7 @@
         <v>3</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4172,10 +4160,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4183,32 +4171,32 @@
         <v>156</v>
       </c>
       <c r="B155" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4216,21 +4204,21 @@
         <v>159</v>
       </c>
       <c r="B158" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4238,10 +4226,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4249,10 +4237,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4260,10 +4248,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4271,10 +4259,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4282,10 +4270,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4293,10 +4281,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4304,10 +4292,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4315,10 +4303,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4326,10 +4314,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4337,10 +4325,10 @@
         <v>170</v>
       </c>
       <c r="B169" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4348,10 +4336,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4359,10 +4347,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4370,10 +4358,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4381,10 +4369,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4392,10 +4380,10 @@
         <v>175</v>
       </c>
       <c r="B174" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4403,10 +4391,10 @@
         <v>176</v>
       </c>
       <c r="B175" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4417,10 +4405,10 @@
         <v>2</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
@@ -4428,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4436,21 +4424,21 @@
         <v>179</v>
       </c>
       <c r="B178" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4458,10 +4446,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4469,10 +4457,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4480,10 +4468,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4491,10 +4479,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="2">
-        <v>2</v>
+        <v>247</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4502,10 +4490,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4513,10 +4501,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4524,10 +4512,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="2">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4535,10 +4523,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4549,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4560,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4571,7 +4559,7 @@
         <v>1</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4579,10 +4567,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4590,10 +4578,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4601,10 +4589,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4612,10 +4600,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4626,7 +4614,7 @@
         <v>2</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4634,10 +4622,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4645,10 +4633,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4656,10 +4644,10 @@
         <v>199</v>
       </c>
       <c r="B198" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4667,10 +4655,10 @@
         <v>200</v>
       </c>
       <c r="B199" s="2">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4678,32 +4666,32 @@
         <v>201</v>
       </c>
       <c r="B200" s="2">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B201" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4711,10 +4699,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4725,7 +4713,7 @@
         <v>4</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4733,10 +4721,10 @@
         <v>206</v>
       </c>
       <c r="B205" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4744,10 +4732,10 @@
         <v>207</v>
       </c>
       <c r="B206" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4755,10 +4743,10 @@
         <v>208</v>
       </c>
       <c r="B207" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4766,10 +4754,10 @@
         <v>209</v>
       </c>
       <c r="B208" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4777,10 +4765,10 @@
         <v>210</v>
       </c>
       <c r="B209" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4788,10 +4776,10 @@
         <v>211</v>
       </c>
       <c r="B210" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4799,10 +4787,10 @@
         <v>212</v>
       </c>
       <c r="B211" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4810,10 +4798,10 @@
         <v>213</v>
       </c>
       <c r="B212" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4824,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4832,10 +4820,10 @@
         <v>215</v>
       </c>
       <c r="B214" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4843,10 +4831,10 @@
         <v>216</v>
       </c>
       <c r="B215" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4854,10 +4842,10 @@
         <v>217</v>
       </c>
       <c r="B216" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4865,13 +4853,13 @@
         <v>218</v>
       </c>
       <c r="B217" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>219</v>
       </c>
@@ -4879,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>220</v>
       </c>
@@ -4890,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4898,10 +4886,10 @@
         <v>221</v>
       </c>
       <c r="B220" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4909,10 +4897,10 @@
         <v>222</v>
       </c>
       <c r="B221" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4920,32 +4908,32 @@
         <v>223</v>
       </c>
       <c r="B222" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B223" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B224" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -4956,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>227</v>
       </c>
@@ -4967,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4978,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4986,10 +4974,10 @@
         <v>229</v>
       </c>
       <c r="B228" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -4997,32 +4985,32 @@
         <v>230</v>
       </c>
       <c r="B229" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B230" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B231" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5030,10 +5018,10 @@
         <v>233</v>
       </c>
       <c r="B232" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5041,10 +5029,10 @@
         <v>234</v>
       </c>
       <c r="B233" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5052,21 +5040,21 @@
         <v>235</v>
       </c>
       <c r="B234" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B235" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5074,10 +5062,10 @@
         <v>237</v>
       </c>
       <c r="B236" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5085,10 +5073,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5096,10 +5084,10 @@
         <v>239</v>
       </c>
       <c r="B238" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5107,10 +5095,10 @@
         <v>240</v>
       </c>
       <c r="B239" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5118,10 +5106,10 @@
         <v>241</v>
       </c>
       <c r="B240" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5129,10 +5117,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5140,10 +5128,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5154,7 +5142,7 @@
         <v>4</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5162,10 +5150,10 @@
         <v>245</v>
       </c>
       <c r="B244" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5176,10 +5164,10 @@
         <v>2</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>247</v>
       </c>
@@ -5187,10 +5175,10 @@
         <v>2</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>248</v>
       </c>
@@ -5198,18 +5186,18 @@
         <v>2</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B248" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5220,18 +5208,18 @@
         <v>1</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B250" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5239,13 +5227,13 @@
         <v>252</v>
       </c>
       <c r="B251" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>253</v>
       </c>
@@ -5253,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -5261,21 +5249,21 @@
         <v>254</v>
       </c>
       <c r="B253" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B254" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5283,10 +5271,10 @@
         <v>256</v>
       </c>
       <c r="B255" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5297,7 +5285,7 @@
         <v>1</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5308,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5316,10 +5304,10 @@
         <v>259</v>
       </c>
       <c r="B258" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5327,10 +5315,10 @@
         <v>260</v>
       </c>
       <c r="B259" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5341,21 +5329,21 @@
         <v>1</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B261" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>263</v>
       </c>
@@ -5363,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5374,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5385,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5393,10 +5381,10 @@
         <v>266</v>
       </c>
       <c r="B265" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5404,13 +5392,13 @@
         <v>267</v>
       </c>
       <c r="B266" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>268</v>
       </c>
@@ -5418,18 +5406,18 @@
         <v>1</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B268" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5437,10 +5425,10 @@
         <v>270</v>
       </c>
       <c r="B269" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5448,10 +5436,10 @@
         <v>271</v>
       </c>
       <c r="B270" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5462,10 +5450,10 @@
         <v>0</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>273</v>
       </c>
@@ -5473,18 +5461,18 @@
         <v>0</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B273" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5492,10 +5480,10 @@
         <v>275</v>
       </c>
       <c r="B274" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5506,10 +5494,10 @@
         <v>0</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>277</v>
       </c>
@@ -5517,10 +5505,10 @@
         <v>0</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>278</v>
       </c>
@@ -5528,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5536,10 +5524,10 @@
         <v>279</v>
       </c>
       <c r="B278" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5547,10 +5535,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5561,29 +5549,29 @@
         <v>0</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B281" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B282" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5591,10 +5579,10 @@
         <v>284</v>
       </c>
       <c r="B283" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5602,10 +5590,10 @@
         <v>285</v>
       </c>
       <c r="B284" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5613,10 +5601,10 @@
         <v>286</v>
       </c>
       <c r="B285" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5624,10 +5612,10 @@
         <v>287</v>
       </c>
       <c r="B286" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5635,10 +5623,10 @@
         <v>288</v>
       </c>
       <c r="B287" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5646,10 +5634,10 @@
         <v>289</v>
       </c>
       <c r="B288" s="2">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5660,7 +5648,7 @@
         <v>19</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5671,7 +5659,7 @@
         <v>19</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5682,7 +5670,7 @@
         <v>19</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5690,10 +5678,10 @@
         <v>293</v>
       </c>
       <c r="B292" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5701,10 +5689,10 @@
         <v>294</v>
       </c>
       <c r="B293" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5712,10 +5700,10 @@
         <v>295</v>
       </c>
       <c r="B294" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5723,10 +5711,10 @@
         <v>296</v>
       </c>
       <c r="B295" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5734,10 +5722,10 @@
         <v>297</v>
       </c>
       <c r="B296" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5745,10 +5733,10 @@
         <v>298</v>
       </c>
       <c r="B297" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5756,10 +5744,10 @@
         <v>299</v>
       </c>
       <c r="B298" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5767,10 +5755,10 @@
         <v>300</v>
       </c>
       <c r="B299" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5781,7 +5769,7 @@
         <v>5</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5792,7 +5780,7 @@
         <v>5</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5800,10 +5788,10 @@
         <v>303</v>
       </c>
       <c r="B302" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5811,10 +5799,10 @@
         <v>304</v>
       </c>
       <c r="B303" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5822,10 +5810,10 @@
         <v>305</v>
       </c>
       <c r="B304" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5833,10 +5821,10 @@
         <v>306</v>
       </c>
       <c r="B305" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5844,10 +5832,10 @@
         <v>307</v>
       </c>
       <c r="B306" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5855,10 +5843,10 @@
         <v>308</v>
       </c>
       <c r="B307" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5869,7 +5857,7 @@
         <v>7</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5877,10 +5865,10 @@
         <v>310</v>
       </c>
       <c r="B309" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5888,10 +5876,10 @@
         <v>311</v>
       </c>
       <c r="B310" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5899,10 +5887,10 @@
         <v>312</v>
       </c>
       <c r="B311" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5910,10 +5898,10 @@
         <v>313</v>
       </c>
       <c r="B312" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5921,10 +5909,10 @@
         <v>314</v>
       </c>
       <c r="B313" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5932,10 +5920,10 @@
         <v>315</v>
       </c>
       <c r="B314" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5943,10 +5931,10 @@
         <v>316</v>
       </c>
       <c r="B315" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5957,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5965,10 +5953,10 @@
         <v>318</v>
       </c>
       <c r="B317" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5976,10 +5964,10 @@
         <v>319</v>
       </c>
       <c r="B318" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5987,10 +5975,10 @@
         <v>320</v>
       </c>
       <c r="B319" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -5998,10 +5986,10 @@
         <v>321</v>
       </c>
       <c r="B320" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6009,10 +5997,10 @@
         <v>322</v>
       </c>
       <c r="B321" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6023,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6034,7 +6022,7 @@
         <v>2</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6042,10 +6030,10 @@
         <v>325</v>
       </c>
       <c r="B324" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6053,10 +6041,10 @@
         <v>326</v>
       </c>
       <c r="B325" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6064,10 +6052,10 @@
         <v>327</v>
       </c>
       <c r="B326" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6075,10 +6063,10 @@
         <v>328</v>
       </c>
       <c r="B327" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6089,7 +6077,7 @@
         <v>4</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6100,7 +6088,7 @@
         <v>4</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6108,10 +6096,10 @@
         <v>331</v>
       </c>
       <c r="B330" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6119,10 +6107,10 @@
         <v>332</v>
       </c>
       <c r="B331" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6130,10 +6118,10 @@
         <v>333</v>
       </c>
       <c r="B332" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6144,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6155,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6166,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>337</v>
       </c>
@@ -6177,10 +6165,10 @@
         <v>0</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>338</v>
       </c>
@@ -6188,7 +6176,7 @@
         <v>0</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6199,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6210,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6221,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6229,10 +6217,10 @@
         <v>342</v>
       </c>
       <c r="B341" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6240,10 +6228,10 @@
         <v>343</v>
       </c>
       <c r="B342" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6251,10 +6239,10 @@
         <v>344</v>
       </c>
       <c r="B343" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6262,10 +6250,10 @@
         <v>345</v>
       </c>
       <c r="B344" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6273,10 +6261,10 @@
         <v>346</v>
       </c>
       <c r="B345" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6284,10 +6272,10 @@
         <v>347</v>
       </c>
       <c r="B346" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6298,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6309,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6320,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6331,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6342,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6353,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6364,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6375,21 +6363,21 @@
         <v>0</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>356</v>
       </c>
       <c r="B355" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>357</v>
       </c>
@@ -6397,18 +6385,18 @@
         <v>2</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>358</v>
       </c>
       <c r="B357" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -6416,10 +6404,10 @@
         <v>359</v>
       </c>
       <c r="B358" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,21 +6418,21 @@
         <v>1</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B360" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>362</v>
       </c>
@@ -6452,10 +6440,10 @@
         <v>0</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>363</v>
       </c>
@@ -6463,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6474,18 +6462,18 @@
         <v>0</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B364" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -6493,10 +6481,10 @@
         <v>366</v>
       </c>
       <c r="B365" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -6515,21 +6503,21 @@
         <v>368</v>
       </c>
       <c r="B367" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>369</v>
       </c>
       <c r="B368" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6537,13 +6525,13 @@
         <v>370</v>
       </c>
       <c r="B369" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>371</v>
       </c>
@@ -6551,18 +6539,18 @@
         <v>0</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B371" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6570,10 +6558,10 @@
         <v>373</v>
       </c>
       <c r="B372" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="373" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6584,10 +6572,10 @@
         <v>0</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>375</v>
       </c>
@@ -6595,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,18 +6594,18 @@
         <v>0</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>377</v>
       </c>
       <c r="B376" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6625,10 +6613,10 @@
         <v>378</v>
       </c>
       <c r="B377" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6639,10 +6627,10 @@
         <v>0</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>380</v>
       </c>
@@ -6650,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -6658,10 +6646,10 @@
         <v>381</v>
       </c>
       <c r="B380" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -6669,10 +6657,10 @@
         <v>382</v>
       </c>
       <c r="B381" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -6680,10 +6668,10 @@
         <v>383</v>
       </c>
       <c r="B382" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -6691,32 +6679,32 @@
         <v>384</v>
       </c>
       <c r="B383" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B384" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B385" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6724,10 +6712,10 @@
         <v>387</v>
       </c>
       <c r="B386" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6738,18 +6726,18 @@
         <v>6</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>389</v>
       </c>
       <c r="B388" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6757,10 +6745,10 @@
         <v>390</v>
       </c>
       <c r="B389" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6771,7 +6759,7 @@
         <v>0</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6779,24 +6767,24 @@
         <v>392</v>
       </c>
       <c r="B391" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>393</v>
       </c>
       <c r="B392" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>394</v>
       </c>
@@ -6804,7 +6792,7 @@
         <v>0</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6815,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6826,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6837,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6848,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6856,10 +6844,10 @@
         <v>399</v>
       </c>
       <c r="B398" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -6870,18 +6858,18 @@
         <v>2</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B400" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -6889,10 +6877,10 @@
         <v>402</v>
       </c>
       <c r="B401" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6914,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6925,7 +6913,7 @@
         <v>3</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6936,7 +6924,7 @@
         <v>0</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6958,7 +6946,7 @@
         <v>2</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6969,7 +6957,7 @@
         <v>2</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -6980,7 +6968,7 @@
         <v>0</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -6988,21 +6976,21 @@
         <v>411</v>
       </c>
       <c r="B410" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>412</v>
       </c>
       <c r="B411" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7013,29 +7001,29 @@
         <v>1</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B413" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>415</v>
       </c>
       <c r="B414" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7043,10 +7031,10 @@
         <v>416</v>
       </c>
       <c r="B415" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7054,13 +7042,13 @@
         <v>417</v>
       </c>
       <c r="B416" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>418</v>
       </c>
@@ -7068,7 +7056,7 @@
         <v>1</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -7076,10 +7064,10 @@
         <v>419</v>
       </c>
       <c r="B418" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="419" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7090,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7101,7 +7089,7 @@
         <v>1</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7112,7 +7100,7 @@
         <v>2</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7123,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7134,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7145,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7156,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7167,7 +7155,7 @@
         <v>0</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7178,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7189,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -7200,7 +7188,7 @@
         <v>83</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -7211,7 +7199,7 @@
         <v>0</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -7222,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7233,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7244,7 +7232,7 @@
         <v>5</v>
       </c>
       <c r="C433" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7255,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7266,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7277,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7288,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7299,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7310,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7321,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -7332,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -7343,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7354,7 +7342,7 @@
         <v>3</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7365,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7376,7 +7364,7 @@
         <v>3</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7387,7 +7375,7 @@
         <v>2</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="447" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7398,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -7409,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7420,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7431,7 +7419,7 @@
         <v>1</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -7442,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7453,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -7464,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="454" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7475,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7486,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7497,7 +7485,7 @@
         <v>2</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7508,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7519,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7530,7 +7518,7 @@
         <v>1</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7541,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7552,7 +7540,7 @@
         <v>3</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7563,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7574,7 +7562,7 @@
         <v>1</v>
       </c>
       <c r="C463" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7585,7 +7573,7 @@
         <v>1</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7596,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7607,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7618,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="468" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7629,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="469" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7640,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7651,7 +7639,7 @@
         <v>2</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="471" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7662,7 +7650,7 @@
         <v>1</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -7673,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7684,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7695,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="475" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7706,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -7717,7 +7705,7 @@
         <v>4</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7728,7 +7716,7 @@
         <v>1</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -7739,7 +7727,7 @@
         <v>5</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -7750,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -7761,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -7772,7 +7760,7 @@
         <v>8</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -7783,7 +7771,7 @@
         <v>5</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -7794,7 +7782,7 @@
         <v>2</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -7805,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -7816,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -7827,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -7838,7 +7826,7 @@
         <v>3</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -7849,7 +7837,7 @@
         <v>1</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -7860,7 +7848,7 @@
         <v>2</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -7871,7 +7859,7 @@
         <v>0</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -7882,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -7893,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -7904,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -7915,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -7926,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -7937,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -7948,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -7959,7 +7947,7 @@
         <v>3</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -7970,7 +7958,7 @@
         <v>1</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -7981,7 +7969,7 @@
         <v>2</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -7992,7 +7980,7 @@
         <v>4</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -8003,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -8014,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -8025,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8036,7 +8024,7 @@
         <v>2</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8047,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8058,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="508" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8069,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -8080,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8091,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8102,7 +8090,7 @@
         <v>1</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8113,7 +8101,7 @@
         <v>1</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8124,7 +8112,7 @@
         <v>0</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8135,7 +8123,7 @@
         <v>1</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="515" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8146,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8157,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8168,7 +8156,7 @@
         <v>2</v>
       </c>
       <c r="C517" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8179,7 +8167,7 @@
         <v>7</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="519" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8190,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="520" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8201,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="521" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8212,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -8223,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="523" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8234,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="524" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8245,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="525" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8256,7 +8244,7 @@
         <v>1</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="526" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8267,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="527" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8278,7 +8266,7 @@
         <v>2</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="528" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8289,7 +8277,7 @@
         <v>2</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="529" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8300,7 +8288,7 @@
         <v>1</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="530" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8311,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -8322,7 +8310,7 @@
         <v>1</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -8333,7 +8321,7 @@
         <v>2</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="533" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -8344,7 +8332,7 @@
         <v>2</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="534" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8355,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="535" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8366,7 +8354,7 @@
         <v>1</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="536" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8377,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="537" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8388,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="538" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8399,7 +8387,7 @@
         <v>1</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="539" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8410,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8421,7 +8409,7 @@
         <v>1</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -8432,7 +8420,7 @@
         <v>58</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -8443,7 +8431,7 @@
         <v>46</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -8454,1694 +8442,1660 @@
         <v>21</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
-        <v>545</v>
+        <v>692</v>
       </c>
       <c r="B544" s="2">
         <v>0</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="545" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
-        <v>546</v>
+        <v>693</v>
       </c>
       <c r="B545" s="2">
         <v>0</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="546" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
-        <v>547</v>
+        <v>694</v>
       </c>
       <c r="B546" s="2">
         <v>1</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
-        <v>548</v>
+        <v>695</v>
       </c>
       <c r="B547" s="2">
         <v>2</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B548" s="2">
         <v>1</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="549" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B549" s="2">
         <v>1</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="550" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B550" s="2">
         <v>0</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B551" s="2">
         <v>1</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="552" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B552" s="2">
         <v>1</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B553" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B554" s="2">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B555" s="2">
+        <v>2</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B556" s="2">
+        <v>11</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B557" s="2">
+        <v>19</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B558" s="2">
+        <v>0</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B555" s="2">
-        <v>2</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="2" t="s">
+      <c r="B559" s="2">
+        <v>0</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B556" s="2">
-        <v>0</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
+      <c r="B560" s="2">
+        <v>3</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B557" s="2">
-        <v>11</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="2" t="s">
+      <c r="B561" s="2">
+        <v>0</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B558" s="2">
-        <v>19</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A559" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="B559" s="2">
-        <v>0</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="B560" s="2">
-        <v>2</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A561" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B561" s="2">
-        <v>3</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A562" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="B562" s="2">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B563" s="2">
         <v>0</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B564" s="2">
+        <v>12</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B565" s="2">
+        <v>4</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B566" s="2">
+        <v>5</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B567" s="2">
+        <v>2</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="B564" s="2">
-        <v>0</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B565" s="2">
-        <v>75</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="B566" s="2">
-        <v>0</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B567" s="2">
-        <v>12</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A568" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="B568" s="2">
         <v>4</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B569" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B570" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="571" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B571" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B572" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B573" s="2">
         <v>1</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B574" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="575" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B575" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B576" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="577" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B577" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B578" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B579" s="2">
         <v>0</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="580" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B580" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B581" s="2">
         <v>2</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B582" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="583" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B583" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="584" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B584" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="585" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B585" s="2">
         <v>1</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="586" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B586" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="587" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B587" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="588" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B588" s="2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="589" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B589" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="590" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B590" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="591" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B591" s="2">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="592" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B592" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="593" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B593" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="594" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A594" s="2" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B594" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="595" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A595" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B595" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="596" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A596" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B596" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="597" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B597" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="598" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B598" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="599" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B599" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="600" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B600" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="601" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B601" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="602" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B602" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="603" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B603" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="604" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B604" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="605" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B605" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="606" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B606" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="607" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B607" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="608" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A608" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B608" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="609" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A609" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B609" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="610" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B610" s="2">
         <v>5</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="611" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B611" s="2">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="612" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B612" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="613" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A613" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B613" s="2">
         <v>5</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="614" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A614" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B614" s="2">
         <v>2</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="615" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A615" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B615" s="2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="616" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A616" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B616" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="617" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A617" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B617" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A618" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B618" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="619" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A619" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B619" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B620" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="621" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A621" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B621" s="2">
         <v>9</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A622" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B622" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="623" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A623" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B623" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="624" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A624" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B624" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="625" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A625" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B625" s="2">
         <v>0</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="626" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B626" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="627" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A627" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B627" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="628" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A628" s="2" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B628" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="629" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A629" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B629" s="2">
         <v>3</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B630" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A631" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B631" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C631" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B632" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="633" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A633" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B633" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="634" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A634" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B634" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="635" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A635" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B635" s="2">
         <v>1</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="636" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A636" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B636" s="2">
         <v>1</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="637" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A637" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B637" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C637" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="638" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A638" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B638" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="639" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A639" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B639" s="2">
         <v>1</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="640" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A640" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B640" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="641" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A641" s="2" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B641" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="642" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B642" s="2">
         <v>1</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="643" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B643" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="644" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A644" s="2" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B644" s="2">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="645" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="2" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B645" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="646" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A646" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B646" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="647" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A647" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B647" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="648" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A648" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B648" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="649" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A649" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B649" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="650" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B650" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="651" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="2" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B651" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="652" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B652" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="653" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A653" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B653" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="654" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A654" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B654" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="655" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B655" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="656" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="B656" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="657" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B657" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="658" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A658" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B658" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="659" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A659" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B659" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="660" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A660" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B660" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="661" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B661" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="662" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A662" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B662" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="663" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B663" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="664" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B664" s="2">
         <v>1</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="665" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B665" s="2">
         <v>1</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="666" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A666" s="2" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B666" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="667" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B667" s="2">
+        <v>2</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B668" s="2">
+        <v>1</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B669" s="2">
+        <v>1</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B670" s="2">
+        <v>0</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B667" s="2">
-        <v>1</v>
-      </c>
-      <c r="C667" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A668" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="B668" s="2">
-        <v>1</v>
-      </c>
-      <c r="C668" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A669" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B669" s="2">
-        <v>1</v>
-      </c>
-      <c r="C669" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A670" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B670" s="2">
-        <v>2</v>
-      </c>
-      <c r="C670" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="B671" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B672" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B673" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="674" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="B674" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B675" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B676" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="677" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B677" s="2">
         <v>0</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="678" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B678" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C678" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="679" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A679" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B679" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="680" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A680" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B680" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="681" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B681" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B682" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="683" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B683" s="2">
         <v>1</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A684" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B684" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B685" s="2">
         <v>1</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="686" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B686" s="2">
         <v>1</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B687" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B688" s="2">
         <v>1</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B689" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="690" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B690" s="2">
+        <v>4</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B691" s="2">
         <v>3</v>
       </c>
-      <c r="C690" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="691" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A691" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="B691" s="2">
-        <v>1</v>
-      </c>
       <c r="C691" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A692" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B692" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="693" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B693" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A694" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="B694" s="2">
-        <v>3</v>
-      </c>
-      <c r="C694" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A695" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="B695" s="2">
-        <v>1</v>
-      </c>
-      <c r="C695" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A696" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B696" s="2">
-        <v>1</v>
-      </c>
-      <c r="C696" s="2" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C696" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>